--- a/data/2025_BET_adult_banding_data.xlsx
+++ b/data/2025_BET_adult_banding_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/randall_friendly_fws_gov1/Documents/Documents/Biological Programs/Tree Swallow Nest Box Monitoring/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{F5B3354F-C60B-4249-B868-7647807FB792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03A696A5-1DB4-4237-B89A-4D85FDF71D83}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD3DE45-BCA4-A54B-9282-93D7CA7CF117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E8522CAB-958B-4F0C-8105-43B686527326}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25860" windowHeight="17500" xr2:uid="{E8522CAB-958B-4F0C-8105-43B686527326}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="62">
   <si>
     <t>box_number</t>
   </si>
@@ -180,6 +180,60 @@
   </si>
   <si>
     <t>04 - dead, band left on bird, 05 dead, band removed, 07 - live release, band left on bird, 08 - live release, band removed</t>
+  </si>
+  <si>
+    <t>TRES</t>
+  </si>
+  <si>
+    <t>LD, RF</t>
+  </si>
+  <si>
+    <t>RF, KJ</t>
+  </si>
+  <si>
+    <t>DJ, KJ</t>
+  </si>
+  <si>
+    <t>LD, DJ</t>
+  </si>
+  <si>
+    <t>DJ, RF</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>AHY</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>RF, LD</t>
+  </si>
+  <si>
+    <t>RF, DJ</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>DJ, LD</t>
+  </si>
+  <si>
+    <t>LD, BD</t>
+  </si>
+  <si>
+    <t>LD, EH</t>
+  </si>
+  <si>
+    <t>RF, EH</t>
   </si>
 </sst>
 </file>
@@ -232,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,13 +297,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,10 +315,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,22 +638,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="52.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,714 +724,2122 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>2025</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>160106616</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="2">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P2" s="2">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>127</v>
+      </c>
+      <c r="R2" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2</v>
+      </c>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="V2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>2025</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2">
+        <v>160106617</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>125</v>
+      </c>
+      <c r="R3" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="6"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="V3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2">
+        <v>160106618</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>123</v>
+      </c>
+      <c r="R4" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2</v>
+      </c>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="V4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>2025</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2">
+        <v>160106619</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>120</v>
+      </c>
+      <c r="R5" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="6"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="V5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2">
+        <v>160106620</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="P6" s="2">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>114</v>
+      </c>
+      <c r="R6" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2</v>
+      </c>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="V6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>160106706</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="P7" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>116</v>
+      </c>
+      <c r="R7" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>3</v>
+      </c>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="6"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="V7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2">
+        <v>160106725</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="2">
+        <v>8</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="P8" s="2">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>128</v>
+      </c>
+      <c r="R8" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="V8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>2025</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2">
+        <v>160106627</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>117</v>
+      </c>
+      <c r="R9" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2</v>
+      </c>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="V9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>2025</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>160106746</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>123</v>
+      </c>
+      <c r="R10" s="2">
+        <v>23</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2</v>
+      </c>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="V10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>281100974</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="2">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>120</v>
+      </c>
+      <c r="R11" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="V11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>2025</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2">
+        <v>160106634</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="P12" s="2">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>115</v>
+      </c>
+      <c r="R12" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="V12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2">
+        <v>160106635</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P13" s="2">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>122</v>
+      </c>
+      <c r="R13" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>2</v>
+      </c>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="V13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>2025</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2">
+        <v>160106636</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="2">
+        <v>8</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="P14" s="2">
+        <v>120</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>122</v>
+      </c>
+      <c r="R14" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2</v>
+      </c>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="V14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2">
+        <v>160106637</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>8</v>
+      </c>
+      <c r="N15" s="2">
+        <v>3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="P15" s="2">
+        <v>113</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>114</v>
+      </c>
+      <c r="R15" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>3</v>
+      </c>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="V15" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>2025</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2">
+        <v>160106638</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>8</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="P16" s="2">
+        <v>117</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>118</v>
+      </c>
+      <c r="R16" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>3</v>
+      </c>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="V16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2025</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2">
+        <v>160106639</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="2">
+        <v>8</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>128</v>
+      </c>
+      <c r="R17" s="2">
+        <v>22</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>2</v>
+      </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="V17" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>2025</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2">
+        <v>160106645</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>8</v>
+      </c>
+      <c r="N18" s="2">
+        <v>4</v>
+      </c>
+      <c r="O18" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="P18" s="2">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>121</v>
+      </c>
+      <c r="R18" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>3</v>
+      </c>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="V18" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>2025</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2">
+        <v>160106646</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>8</v>
+      </c>
+      <c r="N19" s="2">
+        <v>4</v>
+      </c>
+      <c r="O19" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="P19" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>117</v>
+      </c>
+      <c r="R19" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>3</v>
+      </c>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="V19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>2025</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2">
+        <v>160106647</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="2">
+        <v>8</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="P20" s="2">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>119</v>
+      </c>
+      <c r="R20" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>2</v>
+      </c>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="V20" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>2025</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2">
+        <v>160106660</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>8</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4</v>
+      </c>
+      <c r="O21" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>114</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>116</v>
+      </c>
+      <c r="R21" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="V21" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>2025</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2">
+        <v>160106667</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>8</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="P22" s="2">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>124</v>
+      </c>
+      <c r="R22" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>2</v>
+      </c>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="V22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="2">
+        <v>160106674</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>8</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="P23" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>116</v>
+      </c>
+      <c r="R23" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>2</v>
+      </c>
       <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="V23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>2025</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2">
+        <v>160106675</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>8</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>111</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>112</v>
+      </c>
+      <c r="R24" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>2</v>
+      </c>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="V24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>2025</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2">
+        <v>160106797</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="2">
+        <v>8</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>4</v>
+      </c>
+      <c r="O25" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P25" s="2">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>120</v>
+      </c>
+      <c r="R25" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>3</v>
+      </c>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="6"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="V25" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>2025</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2">
+        <v>160106692</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>8</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="P26" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>116</v>
+      </c>
+      <c r="R26" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>3</v>
+      </c>
       <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="6"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="V26" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>2025</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2">
+        <v>160106693</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="2">
+        <v>8</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2</v>
+      </c>
+      <c r="O27" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="P27" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>113</v>
+      </c>
+      <c r="R27" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="6"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="V27" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>2025</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2">
+        <v>160106747</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>8</v>
+      </c>
+      <c r="N28" s="2">
+        <v>4</v>
+      </c>
+      <c r="O28" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="P28" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>116</v>
+      </c>
+      <c r="R28" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>3</v>
+      </c>
       <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="V28" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2">
+        <v>160106794</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="2">
+        <v>8</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P29" s="2">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>122</v>
+      </c>
+      <c r="R29" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>2</v>
+      </c>
       <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="6"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="V29" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>2025</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="2">
+        <v>160106697</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>8</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P30" s="2">
+        <v>110</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>111</v>
+      </c>
+      <c r="R30" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
       <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="6"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="V30" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>2025</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2">
+        <v>317184404</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>8</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="P31" s="2">
+        <v>119</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>120</v>
+      </c>
+      <c r="R31" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>2</v>
+      </c>
       <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="V31" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>2025</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2">
+        <v>317184409</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="2">
+        <v>8</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="P32" s="2">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>125</v>
+      </c>
+      <c r="R32" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>2</v>
+      </c>
       <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="6"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+      <c r="V32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>2025</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="2">
+        <v>317184410</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>8</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>111</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>112</v>
+      </c>
+      <c r="R33" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>4</v>
+      </c>
       <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V33" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="3"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1394,20 +2848,19 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="5"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="4"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="6"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1416,20 +2869,19 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="5"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="4"/>
+      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1438,20 +2890,19 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="4"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1460,20 +2911,19 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="5"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="4"/>
+      <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="6"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="3"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1482,20 +2932,19 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="5"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="4"/>
+      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="3"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1504,20 +2953,19 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="5"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="4"/>
+      <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="6"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="2"/>
       <c r="G40" s="3"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1526,20 +2974,19 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="5"/>
+      <c r="O40" s="4"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="4"/>
+      <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="6"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1548,20 +2995,19 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="5"/>
+      <c r="O41" s="4"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="4"/>
+      <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="6"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="3"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1570,15 +3016,14 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="5"/>
+      <c r="O42" s="4"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="4"/>
+      <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1593,13 +3038,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="157.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="157.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1607,7 +3052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +3060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1623,7 +3068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1631,7 +3076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +3084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +3092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +3100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +3108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +3116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +3124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +3132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1695,7 +3140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1703,7 +3148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1711,7 +3156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +3164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +3172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +3180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1743,7 +3188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +3196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1759,7 +3204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1767,7 +3212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +3220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +3228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
